--- a/biology/Botanique/Nomen_illegitimum/Nomen_illegitimum.xlsx
+++ b/biology/Botanique/Nomen_illegitimum/Nomen_illegitimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nomen illegitimum (« nom illégitime » en latin), généralement abrégé en nom. illeg., est un terme technique utilisé principalement en botanique.
-Ce terme est défini dans le glossaire (en anglais) annexé au Code international de nomenclature pour les algues, les champignons et les plantes sous l'entrée « illegitimate name »[1]. L'abréviation latine est cependant largement utilisée par les botanistes.
+Ce terme est défini dans le glossaire (en anglais) annexé au Code international de nomenclature pour les algues, les champignons et les plantes sous l'entrée « illegitimate name ». L'abréviation latine est cependant largement utilisée par les botanistes.
 Un nomen superfluum (« nom superflu » en latin) », abrégé en nom. superfl., également très utilisé par les botanistes, est souvent un nom illégitime.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un nomen illegitimum est un nom validement publié, mais qui contrevient à certains articles adoptés par le Congrès international de botanique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nomen illegitimum est un nom validement publié, mais qui contrevient à certains articles adoptés par le Congrès international de botanique.
 Un nom peut être illégitime :
 soit parce qu'il était superflu au moment de sa publication, c'est-à-dire que le taxon (représenté par le type) avait déjà un nom (article 52) ;
 ou parce que le nom avait déjà été appliqué à une autre plante (homonyme, articles 53 et 54).
@@ -556,11 +570,13 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom générique Cainito Adans. (1763) est illégitime parce que c'était un nom superflu pour Chrysophyllum L. (1753), qu'Adanson cita comme un synonyme[2].
-Le nom Amblyanthera Müll. Arg. (1860) est un homonyme ultérieur du nom publié validement Amblyanthera Blume (1849) et ne doit pas être utilisé, bien que  Amblyantha  Blume soit maintenant considéré comme un synonyme de Osbeckia L. (1753)[2].
-Le nom Torreya Arn. (1838) est un nomen conservandum et peut donc être utilisé malgré l'existence de l'homonyme antérieur, Torreya Raf. (1818)"[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom générique Cainito Adans. (1763) est illégitime parce que c'était un nom superflu pour Chrysophyllum L. (1753), qu'Adanson cita comme un synonyme.
+Le nom Amblyanthera Müll. Arg. (1860) est un homonyme ultérieur du nom publié validement Amblyanthera Blume (1849) et ne doit pas être utilisé, bien que  Amblyantha  Blume soit maintenant considéré comme un synonyme de Osbeckia L. (1753).
+Le nom Torreya Arn. (1838) est un nomen conservandum et peut donc être utilisé malgré l'existence de l'homonyme antérieur, Torreya Raf. (1818)".</t>
         </is>
       </c>
     </row>
